--- a/dataset/merge_11_cabang.xlsx
+++ b/dataset/merge_11_cabang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dataset_github\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D54A5-5C67-4FAC-BB75-1C04994EEDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7A521-0C3C-47AB-8AB3-09DEF88125A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{200E3D79-942F-452A-9E06-AD38D4853DB2}"/>
   </bookViews>
@@ -4913,10 +4913,10 @@
     <t>SEKARTOYO channel</t>
   </si>
   <si>
-    <t>Harga lumyan terjangkau, tempatnya bersih ada playground untuk anak2, pelayanan ramah n sat set,, tempat parkir lumayan luas,</t>
-  </si>
-  <si>
     <t>Sangat nyaman , makanan enak ,Pelayanan ramah.</t>
+  </si>
+  <si>
+    <t>Harga lumayan terjangkau, tempatnya bersih ada playground untuk anak2, pelayanan ramah n sat set,, tempat parkir lumayan luas,</t>
   </si>
 </sst>
 </file>
@@ -5322,8 +5322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48199410-ADCB-4029-A35E-28B46CB54E59}">
   <dimension ref="A1:G1049"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5463,7 +5463,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>

--- a/dataset/merge_11_cabang.xlsx
+++ b/dataset/merge_11_cabang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dataset_github\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7A521-0C3C-47AB-8AB3-09DEF88125A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E318B46-14F5-4BD7-8383-44CFAEC3B31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{200E3D79-942F-452A-9E06-AD38D4853DB2}"/>
   </bookViews>
